--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/CodeSystem-practitioner-role.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/CodeSystem-practitioner-role.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>10</t>
+    <t>15</t>
   </si>
   <si>
     <t>Level</t>
@@ -147,55 +147,85 @@
     <t>UAC_USER</t>
   </si>
   <si>
-    <t>Use-and-Access Committee Member</t>
+    <t>Use-and-Access Committee User</t>
   </si>
   <si>
     <t>COS_USER</t>
   </si>
   <si>
-    <t>Coordinating Site Member</t>
+    <t>Coordinating Site User</t>
   </si>
   <si>
     <t>CRR_USER</t>
   </si>
   <si>
-    <t>Central Research Repository Member</t>
+    <t>Central Research Repository User</t>
   </si>
   <si>
     <t>DIC_USER</t>
   </si>
   <si>
-    <t>Data Integration Center Member</t>
+    <t>Data Integration Center User</t>
   </si>
   <si>
     <t>DMS_USER</t>
   </si>
   <si>
-    <t>Data Management Site Member</t>
+    <t>Data Management Site User</t>
   </si>
   <si>
     <t>DTS_USER</t>
   </si>
   <si>
-    <t>Data Transfer Site Member</t>
+    <t>Data Transfer Site User</t>
   </si>
   <si>
     <t>HRP_USER</t>
   </si>
   <si>
-    <t>Health Research Platform Member</t>
+    <t>Health Research Platform User</t>
   </si>
   <si>
     <t>TTP_USER</t>
   </si>
   <si>
-    <t>Trusted Third Party Member</t>
+    <t>Trusted Third Party User</t>
   </si>
   <si>
     <t>AMS_USER</t>
   </si>
   <si>
-    <t>Allowlist Management Site Member</t>
+    <t>Allowlist Management Site User</t>
+  </si>
+  <si>
+    <t>ASP_USER</t>
+  </si>
+  <si>
+    <t>Analysis Service Provider User</t>
+  </si>
+  <si>
+    <t>SPR_USER</t>
+  </si>
+  <si>
+    <t>Service Provider Registry User</t>
+  </si>
+  <si>
+    <t>TSP_USER</t>
+  </si>
+  <si>
+    <t>Terminology Service Provider User</t>
+  </si>
+  <si>
+    <t>PPH_USER</t>
+  </si>
+  <si>
+    <t>Process Plugin Hub User</t>
+  </si>
+  <si>
+    <t>BIO_USER</t>
+  </si>
+  <si>
+    <t>Biobank User</t>
   </si>
   <si>
     <t>DSF_ADMIN</t>
@@ -518,7 +548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -658,6 +688,66 @@
       </c>
       <c r="D11" s="2"/>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/CodeSystem-practitioner-role.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/CodeSystem-practitioner-role.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
